--- a/Challan_Pricelist/Challan_PriceList.xlsx
+++ b/Challan_Pricelist/Challan_PriceList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Challan_Pricelist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDEAAC3-F5A7-43A4-98C1-0746477B6071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA778F3B-B3C6-4067-B71A-5F1137DEFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="H275" sqref="H275"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Challan_Pricelist/Challan_PriceList.xlsx
+++ b/Challan_Pricelist/Challan_PriceList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Challan_Pricelist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA778F3B-B3C6-4067-B71A-5F1137DEFD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FA375-5ED4-4A15-9966-BC8805FB545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:G351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9567,7 +9567,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 E1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>